--- a/biology/Zoologie/Hexarthrius_parryi/Hexarthrius_parryi.xlsx
+++ b/biology/Zoologie/Hexarthrius_parryi/Hexarthrius_parryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hexarthrius parryi est une espèce de coléoptères de la famille des Lucanidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype d’Hexarthrius parryi provient des environs de Sylhet dans le Nord-Est du Bangladesh[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype d’Hexarthrius parryi provient des environs de Sylhet dans le Nord-Est du Bangladesh.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hexarthrius parryi partage comme caractéristique avec les deux espèces H. rhinoceros et H. mandibularis, de posséder des mandibules inermes et serrulées sur la surface interne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hexarthrius parryi partage comme caractéristique avec les deux espèces H. rhinoceros et H. mandibularis, de posséder des mandibules inermes et serrulées sur la surface interne.
 </t>
         </is>
       </c>
@@ -573,19 +589,125 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Hexarthrius parryi Hope, 1842[3],[1].
-Liste des sous-espèces
-Selon GBIF       (6 avril 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Hexarthrius parryi Hope, 1842,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hexarthrius_parryi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexarthrius_parryi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (6 avril 2024) :
 Hexarthrius parryi deyrollei Parry, 1864
 Hexarthrius parryi elongatus Jordan, 1894
 Hexarthrius parryi paradoxus Möllenkamp, 1898
-Hexarthrius parryi parryi (Hope, 1842)
-Étymologie
-Son épithète spécifique, parryi, lui a été donnée en l'honneur de l'Anglais Frederick Parry (d) (1810-1885), « entomologiste zélé »[1].
-Publication originale
-(en) Rev. Frederick William Hope, « On some rare and beautiful Coleopterous Insects from Silhet, chiefly in the Collection of Frederick John Parry, Esq., E.L.S., &amp;c. », Transactions of the Linnean Society of London, Royaume-Uni, vol. 19,‎ 1er mars 1842, p. 103-112 (ISSN 1945-9432, e-ISSN 1945-9335, lire en ligne, consulté le 6 avril 2024).</t>
+Hexarthrius parryi parryi (Hope, 1842)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hexarthrius_parryi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexarthrius_parryi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, parryi, lui a été donnée en l'honneur de l'Anglais Frederick Parry (d) (1810-1885), « entomologiste zélé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hexarthrius_parryi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexarthrius_parryi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Rev. Frederick William Hope, « On some rare and beautiful Coleopterous Insects from Silhet, chiefly in the Collection of Frederick John Parry, Esq., E.L.S., &amp;c. », Transactions of the Linnean Society of London, Royaume-Uni, vol. 19,‎ 1er mars 1842, p. 103-112 (ISSN 1945-9432, e-ISSN 1945-9335, lire en ligne, consulté le 6 avril 2024).</t>
         </is>
       </c>
     </row>
